--- a/my_work/月和年/ER56651_丽江月平均.xlsx
+++ b/my_work/月和年/ER56651_丽江月平均.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,242 +442,2792 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26.3131471051759</v>
+        <v>2.948200197026204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.20234836018346</v>
+        <v>2.940354042920221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42.14354098656491</v>
+        <v>3.704174583484255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41.34117575190139</v>
+        <v>4.252931399717308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>44.06664577011392</v>
+        <v>4.364300629959859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41.28392243821449</v>
+        <v>4.275547562966723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35.17554969500431</v>
+        <v>3.827638689101335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.63693549434894</v>
+        <v>3.902534915755941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43.30209689640316</v>
+        <v>3.145332362036942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40.8992544275221</v>
+        <v>3.322266631311545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>44.9643985935811</v>
+        <v>3.016767114921163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42.76400285253079</v>
+        <v>3.089596982937965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>45.79622997122522</v>
+        <v>2.781017129376919</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>44.56228250768137</v>
+        <v>2.944833223842986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46.0959482572289</v>
+        <v>2.934899576730584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>46.25642994923663</v>
+        <v>3.607566495018088</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40.82211687078557</v>
+        <v>4.122401153560488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>45.11502744240286</v>
+        <v>5.067224138055973</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>42.62165574358559</v>
+        <v>4.537108510385699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>42.60676381232532</v>
+        <v>4.076696365873076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>39.88945256021664</v>
+        <v>3.182696429875343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>40.01227943750849</v>
+        <v>3.382767750595631</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42.41603642647343</v>
+        <v>3.318531459977565</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>41.37970649428875</v>
+        <v>2.653712821112693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.95541580030205</v>
+        <v>2.465266008591877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.41413516498866</v>
+        <v>2.794670276787905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>39.51111961446552</v>
+        <v>2.756851880469116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>42.646053380643</v>
+        <v>3.521350593777375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>41.89594096667479</v>
+        <v>4.991125670120335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40.47994629306616</v>
+        <v>4.88396853956626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>42.07089921599748</v>
+        <v>4.884039441026528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38.96836054434519</v>
+        <v>3.896013257033042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>40.55755200227436</v>
+        <v>3.177103380396337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>41.94444322550418</v>
+        <v>3.450420721857556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>42.17713177352473</v>
+        <v>3.012527995438679</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39.76880173676908</v>
+        <v>2.095971045231086</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43.1699693177177</v>
+        <v>2.57213287141477</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>44.45431784687367</v>
+        <v>2.099670355570307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40.73798490040818</v>
+        <v>2.96336647060506</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.70073162301318</v>
+        <v>3.678106421917609</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>45.00529729868789</v>
+        <v>4.270558581663665</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.03306170761802</v>
+        <v>4.313171257363233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41.32883018299713</v>
+        <v>5.075476448135592</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.42375031014094</v>
+        <v>4.286746034767112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.54347095596714</v>
+        <v>2.942245339076569</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46.29636016593677</v>
+        <v>4.201438500411907</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45.77300075662423</v>
+        <v>3.07840108711015</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>40.67186940022867</v>
+        <v>3.800757885966902</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.800757825617195</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.655619917478916</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.654046162677728</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.304455804403789</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4.272168588255594</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4.547643000176464</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5.194029251703991</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3.813634581653202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3.82580564933164</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3.147004874757751</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3.004595186315766</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2.935859764090465</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2.079301458888135</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2.505378115959972</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2.763829822322577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4.166589315845513</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.949300693576242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.916176225489611</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4.569373704861872</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.798475991629958</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.057279332050914</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.820529681340056</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.546382602839677</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.58761232504789</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.635400409703719</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.341787141093525</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.244247050964965</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.235441677088793</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.68525359902907</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.49480561646887</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.482636512454389</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.362892977283375</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4.391852012316682</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4.933212508716323</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5.09745990080409</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5.686171761576639</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3.329748327719462</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2.896216971399816</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2.560315536854348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.720144407564073</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.434690033610169</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.406755946103793</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.841701885758818</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.729441534726022</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4.445846526088275</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4.709208808585307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.540515766674575</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2.946385064949429</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.243186051746892</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.647649139916906</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2.539069412975545</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.205742258147421</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2.911660266813186</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3.138847711139726</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3.512357702567628</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4.034084646985709</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4.304391996719397</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5.501326196683375</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6.297370120075525</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3.73440898104811</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3.862817430567849</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3.527533894242418</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2.857949220671404</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2.354212766261653</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2.559093818272271</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2.418851819485768</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3.157398820256981</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3.547566433294819</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4.473698248737753</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4.917244040557201</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4.562113822070619</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3.49513392602169</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3.863782664710151</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3.145904266994827</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2.918192129141908</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2.703753245399744</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2.951745061372418</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3.027470193972675</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2.889441828843542</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4.084574940271065</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3.951432558934589</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4.734198442098917</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4.630027100418748</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3.556304685295855</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3.677194732441552</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4.059460400186145</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3.410389945861072</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4.430252336198079</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3.256277270928754</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3.116675729746894</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3.305501979510088</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3.398022596025754</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4.797269269623637</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4.328369022616505</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>6.072784471941914</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>3.56932435039194</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3.676103473939397</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4.216337284635395</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2.975720539417972</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3.37242438573072</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2.693268441031536</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2.157156692816513</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2.788617496800759</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>3.225454961918291</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>3.674120301898021</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4.6561102504354</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>6.361719997190713</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5.84770891233518</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4.485870786841193</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>3.362084943806015</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3.426223414951487</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2.798085622275313</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2.404290428688261</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>3.065661140088261</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>3.265763673201764</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4.890924434120875</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5.129697774058059</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4.873937262457241</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4.207462135517694</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>3.751957013031308</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>3.565477591816008</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>3.978621314096767</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.169643524836169</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2.918120927238488</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>3.104965194441379</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>3.399859104420875</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3.225357152334851</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3.539261031651228</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>3.943406912406174</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4.193902436171878</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4.618052506532234</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3.203372892433299</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2.94009120338571</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.750934446505729</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2.627227592318272</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3.032718363000977</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3.043071314486589</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2.704721019558637</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>3.259145066557688</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4.154970882473104</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4.332097806645795</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4.428778058756437</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5.553388181394146</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5.659954289271028</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>3.357315785747755</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3.313621740030448</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2.673550546305446</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2.581004451104084</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2.8232187317994</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2.97798190231753</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>3.266103033411526</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>3.566281956869375</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>4.570992204931934</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>4.157349056796104</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6.030533281384139</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>3.67536481241863</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>3.294970061047687</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2.844801198106252</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.878927411963183</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>3.366166287473777</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>3.452352811626742</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2.51781362755625</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3.283390917327814</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>3.96634070686372</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>4.146829953152245</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>4.565019637195793</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>4.531170312677239</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>5.005105553902338</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3.731642515967298</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>3.162372814049555</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2.884700597346385</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2.281537530051876</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2.387611463882827</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2.661041809908219</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>3.032427625826117</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>3.175943880329711</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>4.529109141559775</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>4.312784101733479</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>4.769893420309371</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>4.123833194468218</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>3.087188039524536</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3.139661916350041</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2.589845917951684</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.961799892066604</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2.741980848273406</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.4249845818237</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2.90825012296068</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>3.245949762998845</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>3.556684482284993</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>4.036003466372383</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>3.830776069345665</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>3.779687692949209</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>3.412164733758976</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>4.098552058904294</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2.48969610814764</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2.875182357682697</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3.193901197939464</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.585431384163639</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.936790166188293</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3.841485887284779</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>4.363902214523055</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>5.155437517651428</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>4.714797967316864</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>4.062047368152204</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3.688160678270508</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.838196969474033</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.892400772018876</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>3.143660050302441</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2.488016420731642</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.291140414559306</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.317159447931127</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.698678473895064</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>3.564471580184868</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>4.992772714118499</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>5.098259062607306</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>4.76770730043177</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>3.487634775536221</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>3.468107813828341</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3.047479653624024</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2.566125626804929</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.811433897411726</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.559876147914884</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2.409461466492089</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.961183124151417</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>4.453513763882989</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>5.06235808003001</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>4.741288113631037</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>4.431528684620714</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3.832603268380187</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.617510633869923</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2.652610910582365</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2.620300748801739</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2.583300166693616</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2.589756839165961</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3.587495327851277</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3.589091524603512</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3.360502776945921</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>5.410018545686617</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>5.050226437291975</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3.92909389149127</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3.982317776894748</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3.40451388293359</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3.112339768185308</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2.966900812171691</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2.297693631320348</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2.723940789612394</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2.970657372479499</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3.115057926433059</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>4.316751158025763</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>5.047005955729441</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>4.097531373691263</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3.505709042119801</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3.205885569196421</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.189704077436476</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2.517263940857812</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2.958871772241179</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2.278551521066039</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2.308129905188763</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2.885623982933053</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3.800399949550041</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3.971209436875206</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4.821317227106405</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>4.42502952404873</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>4.195716318673425</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3.354143615888129</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3.857936432456133</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2.719228922258878</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3.15559182898703</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2.843816642507186</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2.616039499358792</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2.590134780087405</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.761472236444471</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3.938661124283384</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>4.580828853336707</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>5.078034268839916</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>4.454768948597725</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3.305478313740858</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3.691227760158976</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2.672795157093895</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3.245675834097158</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2.927402629513491</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2.649461060480813</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3.042845826802467</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3.739612904136667</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3.763794321315207</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>4.326460312475676</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>4.928255450148678</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>4.003378541403445</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3.290065056225969</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2.65119694810547</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3.250699873521087</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>2.765433052220413</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2.54421090074394</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2.173993105967133</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>2.894506777169958</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>4.386649540189761</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>4.812379788878557</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>5.134745711261981</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3.643748779429637</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>4.203899172732892</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3.430612525760648</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3.25084102570846</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>2.99233625555574</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2.712741207787297</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2.530624010664998</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2.077814420857552</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2.701863954129257</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3.634858318591257</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3.461546785282068</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>4.071150480745955</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3.730102267140047</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3.740700105726775</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3.589207455629435</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3.155461666670304</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3.035853429840843</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>2.83340827534106</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>2.581419879150703</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2.432787926097493</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2.888552380806955</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3.610252084997295</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>4.116309798375849</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>5.415019413808546</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3.403365065072456</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3.948645866772117</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3.951994576184433</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3.212679138079275</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>2.52826246252213</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>2.573980875487831</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>2.353855676815367</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.554634663352101</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>2.361524002337048</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>4.045864832776001</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>4.203116505526332</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>5.072097234442568</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3.886352733221389</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>4.552338366806561</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>3.081248339681701</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3.518824438188139</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2.805710817332216</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3.126761233039522</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>2.673909203641714</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>2.616695518510994</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>2.874501948379951</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.374232341233915</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>4.213685871008304</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>5.037692180560216</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>4.614182940521824</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>3.729727593439491</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.603592917219837</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>3.420943289861546</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>2.939608023746814</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3.1079441904629</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>2.794759468163859</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>2.466261008926069</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>2.874204382784843</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>3.519322733693787</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>4.675752202519289</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>4.101300005473769</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>4.532019384664953</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>3.33448960941667</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>3.26455973759191</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3.216824944566131</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>2.392161580940825</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>2.941016722381368</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>2.550479017789303</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>2.366671414946241</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>3.039549942064077</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>3.177359621425612</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>3.238162571332377</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>5.077041573084754</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>5.910694428064351</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>4.5293721832176</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3.762643413961111</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3.106787499120494</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.281134644668455</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>2.727022619765453</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>2.675564758210592</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>2.644636062802826</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>3.558108180508856</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>3.261413052721288</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>4.72897912142222</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>5.138513971686129</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>4.386414400900194</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>4.456663514682176</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>4.085931991852926</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>3.84422433472916</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.009123380012222</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>2.997051774592029</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2.793397210526341</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>2.19449691324012</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>2.548223899284918</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>3.271166785350682</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>5.182613107669267</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>4.178489528792002</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>4.156067978360426</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>4.547345953691456</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>3.371867485904113</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>3.48937375309991</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>2.673198106203812</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2.476261590147107</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2.098404170892227</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2.744972541012273</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>2.96234287450231</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>3.281812475932217</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>3.62203465776705</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>5.095451108656738</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>3.998112243590825</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>3.921191749947136</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>3.635775137008595</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2.768088678696656</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>2.874956829627331</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>2.599583198502628</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2.82079604844174</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2.120586620339948</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2.72863667443537</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>4.014661606931873</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>4.357309425618844</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>5.077391967760462</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>4.962641485512319</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>3.763608765797365</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>3.662834091628174</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>3.38846364770742</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3.456209687994931</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>3.546673515727999</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>3.111842246807549</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2.935024182765587</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>3.351997855533885</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>4.339452841775177</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>4.253838384737866</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>4.420444746638943</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>4.95830094919076</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>3.924949854899396</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>3.240863905184842</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>3.114865614495994</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>2.739173011487175</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>2.15474111160694</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2.012009477598108</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2.522423954468932</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2.850270787430158</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>3.923818530568443</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>3.566257088378493</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>4.815607452992324</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>4.278222917743439</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>4.328017961622823</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>3.44942798351044</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>3.545225144256239</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>3.028044747788911</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>2.630681557871762</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2.318028905241131</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2.595227105592974</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>2.969995348753418</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>3.980266655372052</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>4.377804512732494</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>4.716994640413746</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>5.375939683631379</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>3.957392755438051</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>3.209275717469209</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3.482969217685171</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>2.849131479654244</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>3.214028976560906</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>3.38738583334706</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>2.902565489083207</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>3.152672782770346</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>4.327636654779095</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>4.7470143007396</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>5.010232013816924</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>4.244438576790682</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>4.642195885255123</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>3.175552275151977</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>3.681169975069599</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>2.73489770607445</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2.575313293619649</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>2.920684510563623</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>2.331662981336074</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>3.194721959926323</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>3.770113140931143</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>4.779869421601283</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>5.733635031596704</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>5.925151740556677</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>4.337695019664534</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>3.365383285251585</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2.948894066294888</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3.249971045673255</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>3.298159552288257</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>2.960071235345152</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>2.732694666806964</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>3.036957694407653</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>3.922378085809377</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>5.285581858578591</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>4.413335595339517</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>5.860455123287911</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>5.173248295395291</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>3.741787966896065</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2.988587070295359</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3.164374954348085</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>2.900354025422567</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>2.966248338544706</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2.319691748299116</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>2.584445632789254</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>3.067909464530758</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>4.355304820393162</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>4.265623421131585</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>4.628307686604583</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>3.820964050500367</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>3.025555256689851</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3.973624605946414</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>2.834152897829362</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3.009180280133728</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>2.662076451369713</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>2.444724832309892</v>
       </c>
     </row>
   </sheetData>
